--- a/optimize/Axiory/covid/MA55/NIKKEI/M5/summary_NIKKEI_M5_MA55_2020_1.xlsx
+++ b/optimize/Axiory/covid/MA55/NIKKEI/M5/summary_NIKKEI_M5_MA55_2020_1.xlsx
@@ -14,18 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>atr_window</t>
+    <t>supertrend.atr_window</t>
   </si>
   <si>
-    <t>atr_multiply</t>
+    <t>supertrend.atr_multiply</t>
   </si>
   <si>
-    <t>ma_wndow</t>
+    <t>supertrend.ma_window</t>
+  </si>
+  <si>
+    <t>supertrend.filter_ma</t>
+  </si>
+  <si>
+    <t>supertrend.atrp_window</t>
+  </si>
+  <si>
+    <t>supertrend.atrp_ma</t>
+  </si>
+  <si>
+    <t>supertrend.atrp_threshold</t>
   </si>
   <si>
     <t>n</t>
@@ -392,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:K154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +432,20 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -435,16 +459,28 @@
         <v>55</v>
       </c>
       <c r="E2">
-        <v>1897</v>
+        <v>384</v>
       </c>
       <c r="F2">
-        <v>6112</v>
+        <v>40</v>
       </c>
       <c r="G2">
-        <v>0.5619399051133368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>0.2</v>
+      </c>
+      <c r="I2">
+        <v>1896</v>
+      </c>
+      <c r="J2">
+        <v>6122</v>
+      </c>
+      <c r="K2">
+        <v>0.5622362869198312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -458,16 +494,28 @@
         <v>55</v>
       </c>
       <c r="E3">
-        <v>1400</v>
+        <v>384</v>
       </c>
       <c r="F3">
-        <v>4902</v>
+        <v>40</v>
       </c>
       <c r="G3">
-        <v>0.5428571428571428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <v>0.2</v>
+      </c>
+      <c r="I3">
+        <v>1399</v>
+      </c>
+      <c r="J3">
+        <v>4912</v>
+      </c>
+      <c r="K3">
+        <v>0.5432451751250893</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -481,16 +529,28 @@
         <v>55</v>
       </c>
       <c r="E4">
-        <v>1124</v>
+        <v>384</v>
       </c>
       <c r="F4">
-        <v>474</v>
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>0.5213523131672598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>0.2</v>
+      </c>
+      <c r="I4">
+        <v>1123</v>
+      </c>
+      <c r="J4">
+        <v>484</v>
+      </c>
+      <c r="K4">
+        <v>0.5218165627782725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -504,16 +564,28 @@
         <v>55</v>
       </c>
       <c r="E5">
-        <v>904</v>
+        <v>384</v>
       </c>
       <c r="F5">
-        <v>-132</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>0.5110619469026548</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>0.2</v>
+      </c>
+      <c r="I5">
+        <v>903</v>
+      </c>
+      <c r="J5">
+        <v>-122</v>
+      </c>
+      <c r="K5">
+        <v>0.5116279069767442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -527,16 +599,28 @@
         <v>55</v>
       </c>
       <c r="E6">
-        <v>732</v>
+        <v>384</v>
       </c>
       <c r="F6">
-        <v>3836</v>
+        <v>40</v>
       </c>
       <c r="G6">
-        <v>0.523224043715847</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+      <c r="I6">
+        <v>731</v>
+      </c>
+      <c r="J6">
+        <v>3846</v>
+      </c>
+      <c r="K6">
+        <v>0.5239398084815321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -550,16 +634,28 @@
         <v>55</v>
       </c>
       <c r="E7">
-        <v>604</v>
+        <v>384</v>
       </c>
       <c r="F7">
-        <v>5854</v>
+        <v>40</v>
       </c>
       <c r="G7">
-        <v>0.5198675496688742</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <v>603</v>
+      </c>
+      <c r="J7">
+        <v>5864</v>
+      </c>
+      <c r="K7">
+        <v>0.5207296849087893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -573,16 +669,28 @@
         <v>55</v>
       </c>
       <c r="E8">
-        <v>506</v>
+        <v>384</v>
       </c>
       <c r="F8">
-        <v>6690</v>
+        <v>40</v>
       </c>
       <c r="G8">
-        <v>0.492094861660079</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H8">
+        <v>0.2</v>
+      </c>
+      <c r="I8">
+        <v>505</v>
+      </c>
+      <c r="J8">
+        <v>6700</v>
+      </c>
+      <c r="K8">
+        <v>0.4930693069306931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -596,16 +704,28 @@
         <v>55</v>
       </c>
       <c r="E9">
-        <v>427</v>
+        <v>384</v>
       </c>
       <c r="F9">
-        <v>-3230</v>
+        <v>40</v>
       </c>
       <c r="G9">
-        <v>0.4566744730679157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H9">
+        <v>0.2</v>
+      </c>
+      <c r="I9">
+        <v>426</v>
+      </c>
+      <c r="J9">
+        <v>-3220</v>
+      </c>
+      <c r="K9">
+        <v>0.4577464788732394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -619,16 +739,28 @@
         <v>55</v>
       </c>
       <c r="E10">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="F10">
-        <v>6758</v>
+        <v>40</v>
       </c>
       <c r="G10">
-        <v>0.4744318181818182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>0.2</v>
+      </c>
+      <c r="I10">
+        <v>351</v>
+      </c>
+      <c r="J10">
+        <v>6768</v>
+      </c>
+      <c r="K10">
+        <v>0.4757834757834758</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -642,16 +774,28 @@
         <v>55</v>
       </c>
       <c r="E11">
-        <v>1877</v>
+        <v>384</v>
       </c>
       <c r="F11">
-        <v>4122</v>
+        <v>40</v>
       </c>
       <c r="G11">
-        <v>0.5482152370804475</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <v>0.2</v>
+      </c>
+      <c r="I11">
+        <v>1876</v>
+      </c>
+      <c r="J11">
+        <v>4132</v>
+      </c>
+      <c r="K11">
+        <v>0.5485074626865671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -665,16 +809,28 @@
         <v>55</v>
       </c>
       <c r="E12">
-        <v>1398</v>
+        <v>384</v>
       </c>
       <c r="F12">
-        <v>3454</v>
+        <v>40</v>
       </c>
       <c r="G12">
-        <v>0.5443490701001431</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H12">
+        <v>0.2</v>
+      </c>
+      <c r="I12">
+        <v>1397</v>
+      </c>
+      <c r="J12">
+        <v>3464</v>
+      </c>
+      <c r="K12">
+        <v>0.5447387258410881</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -688,16 +844,28 @@
         <v>55</v>
       </c>
       <c r="E13">
-        <v>1102</v>
+        <v>384</v>
       </c>
       <c r="F13">
-        <v>4696</v>
+        <v>40</v>
       </c>
       <c r="G13">
-        <v>0.530852994555354</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>0.2</v>
+      </c>
+      <c r="I13">
+        <v>1101</v>
+      </c>
+      <c r="J13">
+        <v>4706</v>
+      </c>
+      <c r="K13">
+        <v>0.5313351498637602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -711,16 +879,28 @@
         <v>55</v>
       </c>
       <c r="E14">
-        <v>886</v>
+        <v>384</v>
       </c>
       <c r="F14">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G14">
-        <v>0.5045146726862303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <v>0.2</v>
+      </c>
+      <c r="I14">
+        <v>885</v>
+      </c>
+      <c r="J14">
+        <v>60</v>
+      </c>
+      <c r="K14">
+        <v>0.5050847457627119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -734,16 +914,28 @@
         <v>55</v>
       </c>
       <c r="E15">
-        <v>728</v>
+        <v>384</v>
       </c>
       <c r="F15">
-        <v>4624</v>
+        <v>40</v>
       </c>
       <c r="G15">
-        <v>0.532967032967033</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <v>0.2</v>
+      </c>
+      <c r="I15">
+        <v>727</v>
+      </c>
+      <c r="J15">
+        <v>4634</v>
+      </c>
+      <c r="K15">
+        <v>0.5337001375515819</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -757,16 +949,28 @@
         <v>55</v>
       </c>
       <c r="E16">
-        <v>590</v>
+        <v>384</v>
       </c>
       <c r="F16">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="G16">
-        <v>0.4932203389830508</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H16">
+        <v>0.2</v>
+      </c>
+      <c r="I16">
+        <v>589</v>
+      </c>
+      <c r="J16">
+        <v>144</v>
+      </c>
+      <c r="K16">
+        <v>0.4940577249575552</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -780,16 +984,28 @@
         <v>55</v>
       </c>
       <c r="E17">
-        <v>467</v>
+        <v>384</v>
       </c>
       <c r="F17">
-        <v>3244</v>
+        <v>40</v>
       </c>
       <c r="G17">
-        <v>0.5074946466809421</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>466</v>
+      </c>
+      <c r="J17">
+        <v>3254</v>
+      </c>
+      <c r="K17">
+        <v>0.5085836909871244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -803,16 +1019,28 @@
         <v>55</v>
       </c>
       <c r="E18">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F18">
-        <v>3586</v>
+        <v>40</v>
       </c>
       <c r="G18">
-        <v>0.4896373056994819</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <v>0.2</v>
+      </c>
+      <c r="I18">
+        <v>385</v>
+      </c>
+      <c r="J18">
+        <v>3596</v>
+      </c>
+      <c r="K18">
+        <v>0.4909090909090909</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
@@ -826,16 +1054,28 @@
         <v>55</v>
       </c>
       <c r="E19">
-        <v>314</v>
+        <v>384</v>
       </c>
       <c r="F19">
-        <v>2776</v>
+        <v>40</v>
       </c>
       <c r="G19">
-        <v>0.4777070063694268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H19">
+        <v>0.2</v>
+      </c>
+      <c r="I19">
+        <v>313</v>
+      </c>
+      <c r="J19">
+        <v>2786</v>
+      </c>
+      <c r="K19">
+        <v>0.4792332268370607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>19</v>
       </c>
@@ -849,16 +1089,28 @@
         <v>55</v>
       </c>
       <c r="E20">
-        <v>1861</v>
+        <v>384</v>
       </c>
       <c r="F20">
-        <v>6450</v>
+        <v>40</v>
       </c>
       <c r="G20">
-        <v>0.5518538420204191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H20">
+        <v>0.2</v>
+      </c>
+      <c r="I20">
+        <v>1860</v>
+      </c>
+      <c r="J20">
+        <v>6460</v>
+      </c>
+      <c r="K20">
+        <v>0.5521505376344086</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>20</v>
       </c>
@@ -872,16 +1124,28 @@
         <v>55</v>
       </c>
       <c r="E21">
-        <v>1388</v>
+        <v>384</v>
       </c>
       <c r="F21">
-        <v>1188</v>
+        <v>40</v>
       </c>
       <c r="G21">
-        <v>0.5353025936599424</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H21">
+        <v>0.2</v>
+      </c>
+      <c r="I21">
+        <v>1387</v>
+      </c>
+      <c r="J21">
+        <v>1198</v>
+      </c>
+      <c r="K21">
+        <v>0.535688536409517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>21</v>
       </c>
@@ -895,16 +1159,28 @@
         <v>55</v>
       </c>
       <c r="E22">
-        <v>1096</v>
+        <v>384</v>
       </c>
       <c r="F22">
-        <v>4490</v>
+        <v>40</v>
       </c>
       <c r="G22">
-        <v>0.5218978102189781</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H22">
+        <v>0.2</v>
+      </c>
+      <c r="I22">
+        <v>1095</v>
+      </c>
+      <c r="J22">
+        <v>4500</v>
+      </c>
+      <c r="K22">
+        <v>0.5223744292237443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>22</v>
       </c>
@@ -918,16 +1194,28 @@
         <v>55</v>
       </c>
       <c r="E23">
-        <v>868</v>
+        <v>384</v>
       </c>
       <c r="F23">
-        <v>2278</v>
+        <v>40</v>
       </c>
       <c r="G23">
-        <v>0.5264976958525346</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H23">
+        <v>0.2</v>
+      </c>
+      <c r="I23">
+        <v>867</v>
+      </c>
+      <c r="J23">
+        <v>2288</v>
+      </c>
+      <c r="K23">
+        <v>0.5271049596309112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>23</v>
       </c>
@@ -941,16 +1229,28 @@
         <v>55</v>
       </c>
       <c r="E24">
-        <v>718</v>
+        <v>384</v>
       </c>
       <c r="F24">
-        <v>-2844</v>
+        <v>40</v>
       </c>
       <c r="G24">
-        <v>0.5055710306406686</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H24">
+        <v>0.2</v>
+      </c>
+      <c r="I24">
+        <v>717</v>
+      </c>
+      <c r="J24">
+        <v>-2834</v>
+      </c>
+      <c r="K24">
+        <v>0.5062761506276151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>24</v>
       </c>
@@ -964,16 +1264,28 @@
         <v>55</v>
       </c>
       <c r="E25">
-        <v>593</v>
+        <v>384</v>
       </c>
       <c r="F25">
-        <v>1564</v>
+        <v>40</v>
       </c>
       <c r="G25">
-        <v>0.4907251264755481</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H25">
+        <v>0.2</v>
+      </c>
+      <c r="I25">
+        <v>592</v>
+      </c>
+      <c r="J25">
+        <v>1574</v>
+      </c>
+      <c r="K25">
+        <v>0.4915540540540541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>25</v>
       </c>
@@ -987,16 +1299,28 @@
         <v>55</v>
       </c>
       <c r="E26">
-        <v>466</v>
+        <v>384</v>
       </c>
       <c r="F26">
-        <v>4950</v>
+        <v>40</v>
       </c>
       <c r="G26">
-        <v>0.4935622317596566</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H26">
+        <v>0.2</v>
+      </c>
+      <c r="I26">
+        <v>465</v>
+      </c>
+      <c r="J26">
+        <v>4960</v>
+      </c>
+      <c r="K26">
+        <v>0.4946236559139785</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1010,16 +1334,28 @@
         <v>55</v>
       </c>
       <c r="E27">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F27">
-        <v>684</v>
+        <v>40</v>
       </c>
       <c r="G27">
-        <v>0.5078947368421053</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H27">
+        <v>0.2</v>
+      </c>
+      <c r="I27">
+        <v>379</v>
+      </c>
+      <c r="J27">
+        <v>694</v>
+      </c>
+      <c r="K27">
+        <v>0.5092348284960422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1033,16 +1369,28 @@
         <v>55</v>
       </c>
       <c r="E28">
-        <v>314</v>
+        <v>384</v>
       </c>
       <c r="F28">
-        <v>6590</v>
+        <v>40</v>
       </c>
       <c r="G28">
-        <v>0.4904458598726115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H28">
+        <v>0.2</v>
+      </c>
+      <c r="I28">
+        <v>313</v>
+      </c>
+      <c r="J28">
+        <v>6600</v>
+      </c>
+      <c r="K28">
+        <v>0.4920127795527157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1056,16 +1404,28 @@
         <v>55</v>
       </c>
       <c r="E29">
-        <v>1867</v>
+        <v>384</v>
       </c>
       <c r="F29">
-        <v>5314</v>
+        <v>40</v>
       </c>
       <c r="G29">
-        <v>0.5554365291912159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H29">
+        <v>0.2</v>
+      </c>
+      <c r="I29">
+        <v>1866</v>
+      </c>
+      <c r="J29">
+        <v>5324</v>
+      </c>
+      <c r="K29">
+        <v>0.5557341907824223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1079,16 +1439,28 @@
         <v>55</v>
       </c>
       <c r="E30">
-        <v>1380</v>
+        <v>384</v>
       </c>
       <c r="F30">
-        <v>-1650</v>
+        <v>40</v>
       </c>
       <c r="G30">
-        <v>0.5326086956521739</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H30">
+        <v>0.2</v>
+      </c>
+      <c r="I30">
+        <v>1379</v>
+      </c>
+      <c r="J30">
+        <v>-1640</v>
+      </c>
+      <c r="K30">
+        <v>0.5329949238578681</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1102,16 +1474,28 @@
         <v>55</v>
       </c>
       <c r="E31">
-        <v>1094</v>
+        <v>384</v>
       </c>
       <c r="F31">
-        <v>5034</v>
+        <v>40</v>
       </c>
       <c r="G31">
-        <v>0.5237659963436929</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H31">
+        <v>0.2</v>
+      </c>
+      <c r="I31">
+        <v>1093</v>
+      </c>
+      <c r="J31">
+        <v>5044</v>
+      </c>
+      <c r="K31">
+        <v>0.5242451967063129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1125,16 +1509,28 @@
         <v>55</v>
       </c>
       <c r="E32">
-        <v>872</v>
+        <v>384</v>
       </c>
       <c r="F32">
-        <v>2892</v>
+        <v>40</v>
       </c>
       <c r="G32">
-        <v>0.5332568807339449</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H32">
+        <v>0.2</v>
+      </c>
+      <c r="I32">
+        <v>871</v>
+      </c>
+      <c r="J32">
+        <v>2902</v>
+      </c>
+      <c r="K32">
+        <v>0.5338691159586682</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1148,16 +1544,28 @@
         <v>55</v>
       </c>
       <c r="E33">
-        <v>702</v>
+        <v>384</v>
       </c>
       <c r="F33">
-        <v>-6</v>
+        <v>40</v>
       </c>
       <c r="G33">
-        <v>0.5242165242165242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H33">
+        <v>0.2</v>
+      </c>
+      <c r="I33">
+        <v>701</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>0.5249643366619116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1171,16 +1579,28 @@
         <v>55</v>
       </c>
       <c r="E34">
-        <v>596</v>
+        <v>384</v>
       </c>
       <c r="F34">
-        <v>2404</v>
+        <v>40</v>
       </c>
       <c r="G34">
-        <v>0.5067114093959731</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H34">
+        <v>0.2</v>
+      </c>
+      <c r="I34">
+        <v>595</v>
+      </c>
+      <c r="J34">
+        <v>2414</v>
+      </c>
+      <c r="K34">
+        <v>0.507563025210084</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1194,16 +1614,28 @@
         <v>55</v>
       </c>
       <c r="E35">
-        <v>474</v>
+        <v>384</v>
       </c>
       <c r="F35">
-        <v>1152</v>
+        <v>40</v>
       </c>
       <c r="G35">
-        <v>0.5084388185654009</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H35">
+        <v>0.2</v>
+      </c>
+      <c r="I35">
+        <v>473</v>
+      </c>
+      <c r="J35">
+        <v>1162</v>
+      </c>
+      <c r="K35">
+        <v>0.5095137420718816</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1217,16 +1649,28 @@
         <v>55</v>
       </c>
       <c r="E36">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F36">
-        <v>8610</v>
+        <v>40</v>
       </c>
       <c r="G36">
-        <v>0.5153846153846153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H36">
+        <v>0.2</v>
+      </c>
+      <c r="I36">
+        <v>389</v>
+      </c>
+      <c r="J36">
+        <v>8620</v>
+      </c>
+      <c r="K36">
+        <v>0.5167095115681234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1240,16 +1684,28 @@
         <v>55</v>
       </c>
       <c r="E37">
-        <v>320</v>
+        <v>384</v>
       </c>
       <c r="F37">
-        <v>10870</v>
+        <v>40</v>
       </c>
       <c r="G37">
-        <v>0.50625</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H37">
+        <v>0.2</v>
+      </c>
+      <c r="I37">
+        <v>319</v>
+      </c>
+      <c r="J37">
+        <v>10880</v>
+      </c>
+      <c r="K37">
+        <v>0.5078369905956113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1263,16 +1719,28 @@
         <v>55</v>
       </c>
       <c r="E38">
-        <v>1863</v>
+        <v>384</v>
       </c>
       <c r="F38">
-        <v>6132</v>
+        <v>40</v>
       </c>
       <c r="G38">
-        <v>0.5619967793880838</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H38">
+        <v>0.2</v>
+      </c>
+      <c r="I38">
+        <v>1862</v>
+      </c>
+      <c r="J38">
+        <v>6142</v>
+      </c>
+      <c r="K38">
+        <v>0.5622986036519871</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1286,16 +1754,28 @@
         <v>55</v>
       </c>
       <c r="E39">
-        <v>1376</v>
+        <v>384</v>
       </c>
       <c r="F39">
-        <v>-454</v>
+        <v>40</v>
       </c>
       <c r="G39">
-        <v>0.5305232558139535</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H39">
+        <v>0.2</v>
+      </c>
+      <c r="I39">
+        <v>1375</v>
+      </c>
+      <c r="J39">
+        <v>-444</v>
+      </c>
+      <c r="K39">
+        <v>0.5309090909090909</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1309,16 +1789,28 @@
         <v>55</v>
       </c>
       <c r="E40">
-        <v>1080</v>
+        <v>384</v>
       </c>
       <c r="F40">
-        <v>1172</v>
+        <v>40</v>
       </c>
       <c r="G40">
-        <v>0.5212962962962963</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H40">
+        <v>0.2</v>
+      </c>
+      <c r="I40">
+        <v>1079</v>
+      </c>
+      <c r="J40">
+        <v>1182</v>
+      </c>
+      <c r="K40">
+        <v>0.5217794253938832</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1332,16 +1824,28 @@
         <v>55</v>
       </c>
       <c r="E41">
-        <v>874</v>
+        <v>384</v>
       </c>
       <c r="F41">
-        <v>6132</v>
+        <v>40</v>
       </c>
       <c r="G41">
-        <v>0.534324942791762</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H41">
+        <v>0.2</v>
+      </c>
+      <c r="I41">
+        <v>873</v>
+      </c>
+      <c r="J41">
+        <v>6142</v>
+      </c>
+      <c r="K41">
+        <v>0.5349369988545246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1355,16 +1859,28 @@
         <v>55</v>
       </c>
       <c r="E42">
-        <v>690</v>
+        <v>384</v>
       </c>
       <c r="F42">
-        <v>6036</v>
+        <v>40</v>
       </c>
       <c r="G42">
-        <v>0.5318840579710145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H42">
+        <v>0.2</v>
+      </c>
+      <c r="I42">
+        <v>689</v>
+      </c>
+      <c r="J42">
+        <v>6046</v>
+      </c>
+      <c r="K42">
+        <v>0.532656023222061</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1378,16 +1894,28 @@
         <v>55</v>
       </c>
       <c r="E43">
-        <v>586</v>
+        <v>384</v>
       </c>
       <c r="F43">
-        <v>-784</v>
+        <v>40</v>
       </c>
       <c r="G43">
-        <v>0.5034129692832765</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H43">
+        <v>0.2</v>
+      </c>
+      <c r="I43">
+        <v>585</v>
+      </c>
+      <c r="J43">
+        <v>-774</v>
+      </c>
+      <c r="K43">
+        <v>0.5042735042735043</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1401,16 +1929,28 @@
         <v>55</v>
       </c>
       <c r="E44">
-        <v>479</v>
+        <v>384</v>
       </c>
       <c r="F44">
-        <v>-2086</v>
+        <v>40</v>
       </c>
       <c r="G44">
-        <v>0.4926931106471816</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H44">
+        <v>0.2</v>
+      </c>
+      <c r="I44">
+        <v>478</v>
+      </c>
+      <c r="J44">
+        <v>-2076</v>
+      </c>
+      <c r="K44">
+        <v>0.4937238493723849</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1424,16 +1964,28 @@
         <v>55</v>
       </c>
       <c r="E45">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F45">
-        <v>5150</v>
+        <v>40</v>
       </c>
       <c r="G45">
-        <v>0.4846938775510204</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H45">
+        <v>0.2</v>
+      </c>
+      <c r="I45">
+        <v>391</v>
+      </c>
+      <c r="J45">
+        <v>5160</v>
+      </c>
+      <c r="K45">
+        <v>0.4859335038363171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1447,16 +1999,28 @@
         <v>55</v>
       </c>
       <c r="E46">
-        <v>314</v>
+        <v>384</v>
       </c>
       <c r="F46">
-        <v>10664</v>
+        <v>40</v>
       </c>
       <c r="G46">
-        <v>0.5031847133757962</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H46">
+        <v>0.2</v>
+      </c>
+      <c r="I46">
+        <v>313</v>
+      </c>
+      <c r="J46">
+        <v>10674</v>
+      </c>
+      <c r="K46">
+        <v>0.5047923322683706</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1470,16 +2034,28 @@
         <v>55</v>
       </c>
       <c r="E47">
-        <v>1852</v>
+        <v>384</v>
       </c>
       <c r="F47">
-        <v>6898</v>
+        <v>40</v>
       </c>
       <c r="G47">
-        <v>0.5669546436285097</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H47">
+        <v>0.2</v>
+      </c>
+      <c r="I47">
+        <v>1851</v>
+      </c>
+      <c r="J47">
+        <v>6908</v>
+      </c>
+      <c r="K47">
+        <v>0.5672609400324149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1493,16 +2069,28 @@
         <v>55</v>
       </c>
       <c r="E48">
-        <v>1376</v>
+        <v>384</v>
       </c>
       <c r="F48">
-        <v>-1086</v>
+        <v>40</v>
       </c>
       <c r="G48">
-        <v>0.5348837209302325</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H48">
+        <v>0.2</v>
+      </c>
+      <c r="I48">
+        <v>1375</v>
+      </c>
+      <c r="J48">
+        <v>-1076</v>
+      </c>
+      <c r="K48">
+        <v>0.5352727272727272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1516,16 +2104,28 @@
         <v>55</v>
       </c>
       <c r="E49">
-        <v>1066</v>
+        <v>384</v>
       </c>
       <c r="F49">
-        <v>1450</v>
+        <v>40</v>
       </c>
       <c r="G49">
-        <v>0.524390243902439</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H49">
+        <v>0.2</v>
+      </c>
+      <c r="I49">
+        <v>1065</v>
+      </c>
+      <c r="J49">
+        <v>1460</v>
+      </c>
+      <c r="K49">
+        <v>0.5248826291079812</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1539,16 +2139,28 @@
         <v>55</v>
       </c>
       <c r="E50">
-        <v>858</v>
+        <v>384</v>
       </c>
       <c r="F50">
-        <v>6844</v>
+        <v>40</v>
       </c>
       <c r="G50">
-        <v>0.5372960372960373</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H50">
+        <v>0.2</v>
+      </c>
+      <c r="I50">
+        <v>857</v>
+      </c>
+      <c r="J50">
+        <v>6854</v>
+      </c>
+      <c r="K50">
+        <v>0.5379229871645275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1562,16 +2174,28 @@
         <v>55</v>
       </c>
       <c r="E51">
-        <v>694</v>
+        <v>384</v>
       </c>
       <c r="F51">
-        <v>5708</v>
+        <v>40</v>
       </c>
       <c r="G51">
-        <v>0.531700288184438</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H51">
+        <v>0.2</v>
+      </c>
+      <c r="I51">
+        <v>693</v>
+      </c>
+      <c r="J51">
+        <v>5718</v>
+      </c>
+      <c r="K51">
+        <v>0.5324675324675324</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1585,16 +2209,28 @@
         <v>55</v>
       </c>
       <c r="E52">
-        <v>580</v>
+        <v>384</v>
       </c>
       <c r="F52">
-        <v>-3120</v>
+        <v>40</v>
       </c>
       <c r="G52">
-        <v>0.4879310344827586</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H52">
+        <v>0.2</v>
+      </c>
+      <c r="I52">
+        <v>579</v>
+      </c>
+      <c r="J52">
+        <v>-3110</v>
+      </c>
+      <c r="K52">
+        <v>0.4887737478411053</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1608,16 +2244,28 @@
         <v>55</v>
       </c>
       <c r="E53">
-        <v>481</v>
+        <v>384</v>
       </c>
       <c r="F53">
-        <v>-2276</v>
+        <v>40</v>
       </c>
       <c r="G53">
-        <v>0.4781704781704782</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H53">
+        <v>0.2</v>
+      </c>
+      <c r="I53">
+        <v>480</v>
+      </c>
+      <c r="J53">
+        <v>-2266</v>
+      </c>
+      <c r="K53">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1631,16 +2279,28 @@
         <v>55</v>
       </c>
       <c r="E54">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F54">
-        <v>9048</v>
+        <v>40</v>
       </c>
       <c r="G54">
-        <v>0.4936061381074169</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H54">
+        <v>0.2</v>
+      </c>
+      <c r="I54">
+        <v>390</v>
+      </c>
+      <c r="J54">
+        <v>9058</v>
+      </c>
+      <c r="K54">
+        <v>0.4948717948717949</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1654,16 +2314,28 @@
         <v>55</v>
       </c>
       <c r="E55">
-        <v>314</v>
+        <v>384</v>
       </c>
       <c r="F55">
-        <v>13676</v>
+        <v>40</v>
       </c>
       <c r="G55">
-        <v>0.5445859872611465</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H55">
+        <v>0.2</v>
+      </c>
+      <c r="I55">
+        <v>313</v>
+      </c>
+      <c r="J55">
+        <v>13686</v>
+      </c>
+      <c r="K55">
+        <v>0.5463258785942492</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1677,16 +2349,28 @@
         <v>55</v>
       </c>
       <c r="E56">
-        <v>1852</v>
+        <v>384</v>
       </c>
       <c r="F56">
-        <v>6204</v>
+        <v>40</v>
       </c>
       <c r="G56">
-        <v>0.5658747300215983</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H56">
+        <v>0.2</v>
+      </c>
+      <c r="I56">
+        <v>1851</v>
+      </c>
+      <c r="J56">
+        <v>6214</v>
+      </c>
+      <c r="K56">
+        <v>0.5661804430037818</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1700,16 +2384,28 @@
         <v>55</v>
       </c>
       <c r="E57">
-        <v>1362</v>
+        <v>384</v>
       </c>
       <c r="F57">
-        <v>396</v>
+        <v>40</v>
       </c>
       <c r="G57">
-        <v>0.5315712187958884</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H57">
+        <v>0.2</v>
+      </c>
+      <c r="I57">
+        <v>1361</v>
+      </c>
+      <c r="J57">
+        <v>406</v>
+      </c>
+      <c r="K57">
+        <v>0.5319617927994122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1723,16 +2419,28 @@
         <v>55</v>
       </c>
       <c r="E58">
-        <v>1064</v>
+        <v>384</v>
       </c>
       <c r="F58">
-        <v>1418</v>
+        <v>40</v>
       </c>
       <c r="G58">
-        <v>0.5244360902255639</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H58">
+        <v>0.2</v>
+      </c>
+      <c r="I58">
+        <v>1063</v>
+      </c>
+      <c r="J58">
+        <v>1428</v>
+      </c>
+      <c r="K58">
+        <v>0.5249294449670743</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1746,16 +2454,28 @@
         <v>55</v>
       </c>
       <c r="E59">
-        <v>854</v>
+        <v>384</v>
       </c>
       <c r="F59">
-        <v>7996</v>
+        <v>40</v>
       </c>
       <c r="G59">
-        <v>0.5245901639344263</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H59">
+        <v>0.2</v>
+      </c>
+      <c r="I59">
+        <v>853</v>
+      </c>
+      <c r="J59">
+        <v>8006</v>
+      </c>
+      <c r="K59">
+        <v>0.5252051582649473</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1769,16 +2489,28 @@
         <v>55</v>
       </c>
       <c r="E60">
-        <v>688</v>
+        <v>384</v>
       </c>
       <c r="F60">
-        <v>2882</v>
+        <v>40</v>
       </c>
       <c r="G60">
-        <v>0.5377906976744186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H60">
+        <v>0.2</v>
+      </c>
+      <c r="I60">
+        <v>687</v>
+      </c>
+      <c r="J60">
+        <v>2892</v>
+      </c>
+      <c r="K60">
+        <v>0.5385735080058224</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1792,16 +2524,28 @@
         <v>55</v>
       </c>
       <c r="E61">
-        <v>578</v>
+        <v>384</v>
       </c>
       <c r="F61">
-        <v>-64</v>
+        <v>40</v>
       </c>
       <c r="G61">
-        <v>0.5034602076124568</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H61">
+        <v>0.2</v>
+      </c>
+      <c r="I61">
+        <v>577</v>
+      </c>
+      <c r="J61">
+        <v>-54</v>
+      </c>
+      <c r="K61">
+        <v>0.5043327556325823</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1815,16 +2559,28 @@
         <v>55</v>
       </c>
       <c r="E62">
-        <v>487</v>
+        <v>384</v>
       </c>
       <c r="F62">
-        <v>-678</v>
+        <v>40</v>
       </c>
       <c r="G62">
-        <v>0.4784394250513347</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H62">
+        <v>0.2</v>
+      </c>
+      <c r="I62">
+        <v>486</v>
+      </c>
+      <c r="J62">
+        <v>-668</v>
+      </c>
+      <c r="K62">
+        <v>0.4794238683127572</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1838,16 +2594,28 @@
         <v>55</v>
       </c>
       <c r="E63">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="F63">
-        <v>3194</v>
+        <v>40</v>
       </c>
       <c r="G63">
-        <v>0.4784810126582278</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H63">
+        <v>0.2</v>
+      </c>
+      <c r="I63">
+        <v>394</v>
+      </c>
+      <c r="J63">
+        <v>3204</v>
+      </c>
+      <c r="K63">
+        <v>0.4796954314720812</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1861,16 +2629,28 @@
         <v>55</v>
       </c>
       <c r="E64">
-        <v>323</v>
+        <v>384</v>
       </c>
       <c r="F64">
-        <v>11692</v>
+        <v>40</v>
       </c>
       <c r="G64">
-        <v>0.5263157894736842</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H64">
+        <v>0.2</v>
+      </c>
+      <c r="I64">
+        <v>322</v>
+      </c>
+      <c r="J64">
+        <v>11702</v>
+      </c>
+      <c r="K64">
+        <v>0.5279503105590062</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1884,16 +2664,28 @@
         <v>55</v>
       </c>
       <c r="E65">
-        <v>1856</v>
+        <v>384</v>
       </c>
       <c r="F65">
-        <v>6130</v>
+        <v>40</v>
       </c>
       <c r="G65">
-        <v>0.5732758620689655</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H65">
+        <v>0.2</v>
+      </c>
+      <c r="I65">
+        <v>1855</v>
+      </c>
+      <c r="J65">
+        <v>6140</v>
+      </c>
+      <c r="K65">
+        <v>0.5735849056603773</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1907,16 +2699,28 @@
         <v>55</v>
       </c>
       <c r="E66">
-        <v>1357</v>
+        <v>384</v>
       </c>
       <c r="F66">
-        <v>730</v>
+        <v>40</v>
       </c>
       <c r="G66">
-        <v>0.5335298452468681</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H66">
+        <v>0.2</v>
+      </c>
+      <c r="I66">
+        <v>1356</v>
+      </c>
+      <c r="J66">
+        <v>740</v>
+      </c>
+      <c r="K66">
+        <v>0.5339233038348082</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1930,16 +2734,28 @@
         <v>55</v>
       </c>
       <c r="E67">
-        <v>1056</v>
+        <v>384</v>
       </c>
       <c r="F67">
-        <v>2222</v>
+        <v>40</v>
       </c>
       <c r="G67">
-        <v>0.5265151515151515</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H67">
+        <v>0.2</v>
+      </c>
+      <c r="I67">
+        <v>1055</v>
+      </c>
+      <c r="J67">
+        <v>2232</v>
+      </c>
+      <c r="K67">
+        <v>0.5270142180094787</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1953,16 +2769,28 @@
         <v>55</v>
       </c>
       <c r="E68">
-        <v>870</v>
+        <v>384</v>
       </c>
       <c r="F68">
-        <v>7882</v>
+        <v>40</v>
       </c>
       <c r="G68">
-        <v>0.5045977011494253</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H68">
+        <v>0.2</v>
+      </c>
+      <c r="I68">
+        <v>869</v>
+      </c>
+      <c r="J68">
+        <v>7892</v>
+      </c>
+      <c r="K68">
+        <v>0.5051783659378596</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1976,16 +2804,28 @@
         <v>55</v>
       </c>
       <c r="E69">
-        <v>694</v>
+        <v>384</v>
       </c>
       <c r="F69">
-        <v>3542</v>
+        <v>40</v>
       </c>
       <c r="G69">
-        <v>0.5417867435158501</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H69">
+        <v>0.2</v>
+      </c>
+      <c r="I69">
+        <v>693</v>
+      </c>
+      <c r="J69">
+        <v>3552</v>
+      </c>
+      <c r="K69">
+        <v>0.5425685425685426</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1999,16 +2839,28 @@
         <v>55</v>
       </c>
       <c r="E70">
-        <v>578</v>
+        <v>384</v>
       </c>
       <c r="F70">
-        <v>-642</v>
+        <v>40</v>
       </c>
       <c r="G70">
-        <v>0.4792387543252595</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H70">
+        <v>0.2</v>
+      </c>
+      <c r="I70">
+        <v>577</v>
+      </c>
+      <c r="J70">
+        <v>-632</v>
+      </c>
+      <c r="K70">
+        <v>0.4800693240901213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2022,16 +2874,28 @@
         <v>55</v>
       </c>
       <c r="E71">
-        <v>485</v>
+        <v>384</v>
       </c>
       <c r="F71">
-        <v>-1478</v>
+        <v>40</v>
       </c>
       <c r="G71">
-        <v>0.4721649484536082</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H71">
+        <v>0.2</v>
+      </c>
+      <c r="I71">
+        <v>484</v>
+      </c>
+      <c r="J71">
+        <v>-1468</v>
+      </c>
+      <c r="K71">
+        <v>0.4731404958677686</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2045,16 +2909,28 @@
         <v>55</v>
       </c>
       <c r="E72">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="F72">
-        <v>4632</v>
+        <v>40</v>
       </c>
       <c r="G72">
-        <v>0.5037406483790524</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H72">
+        <v>0.2</v>
+      </c>
+      <c r="I72">
+        <v>400</v>
+      </c>
+      <c r="J72">
+        <v>4642</v>
+      </c>
+      <c r="K72">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2068,16 +2944,28 @@
         <v>55</v>
       </c>
       <c r="E73">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="F73">
-        <v>8394</v>
+        <v>40</v>
       </c>
       <c r="G73">
-        <v>0.4834834834834835</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H73">
+        <v>0.2</v>
+      </c>
+      <c r="I73">
+        <v>332</v>
+      </c>
+      <c r="J73">
+        <v>8404</v>
+      </c>
+      <c r="K73">
+        <v>0.4849397590361446</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2091,16 +2979,28 @@
         <v>55</v>
       </c>
       <c r="E74">
-        <v>1852</v>
+        <v>384</v>
       </c>
       <c r="F74">
-        <v>5704</v>
+        <v>40</v>
       </c>
       <c r="G74">
-        <v>0.5696544276457883</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H74">
+        <v>0.2</v>
+      </c>
+      <c r="I74">
+        <v>1851</v>
+      </c>
+      <c r="J74">
+        <v>5714</v>
+      </c>
+      <c r="K74">
+        <v>0.5699621826039979</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2114,16 +3014,28 @@
         <v>55</v>
       </c>
       <c r="E75">
-        <v>1362</v>
+        <v>384</v>
       </c>
       <c r="F75">
-        <v>1086</v>
+        <v>40</v>
       </c>
       <c r="G75">
-        <v>0.5308370044052864</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H75">
+        <v>0.2</v>
+      </c>
+      <c r="I75">
+        <v>1361</v>
+      </c>
+      <c r="J75">
+        <v>1096</v>
+      </c>
+      <c r="K75">
+        <v>0.5312270389419544</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2137,16 +3049,28 @@
         <v>55</v>
       </c>
       <c r="E76">
-        <v>1046</v>
+        <v>384</v>
       </c>
       <c r="F76">
-        <v>4312</v>
+        <v>40</v>
       </c>
       <c r="G76">
-        <v>0.5363288718929254</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H76">
+        <v>0.2</v>
+      </c>
+      <c r="I76">
+        <v>1045</v>
+      </c>
+      <c r="J76">
+        <v>4322</v>
+      </c>
+      <c r="K76">
+        <v>0.5368421052631579</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2160,16 +3084,28 @@
         <v>55</v>
       </c>
       <c r="E77">
-        <v>858</v>
+        <v>384</v>
       </c>
       <c r="F77">
-        <v>7254</v>
+        <v>40</v>
       </c>
       <c r="G77">
-        <v>0.5034965034965035</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H77">
+        <v>0.2</v>
+      </c>
+      <c r="I77">
+        <v>857</v>
+      </c>
+      <c r="J77">
+        <v>7264</v>
+      </c>
+      <c r="K77">
+        <v>0.5040840140023337</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2183,16 +3119,28 @@
         <v>55</v>
       </c>
       <c r="E78">
-        <v>682</v>
+        <v>384</v>
       </c>
       <c r="F78">
-        <v>930</v>
+        <v>40</v>
       </c>
       <c r="G78">
-        <v>0.5161290322580645</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H78">
+        <v>0.2</v>
+      </c>
+      <c r="I78">
+        <v>681</v>
+      </c>
+      <c r="J78">
+        <v>940</v>
+      </c>
+      <c r="K78">
+        <v>0.5168869309838473</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2206,16 +3154,28 @@
         <v>55</v>
       </c>
       <c r="E79">
-        <v>572</v>
+        <v>384</v>
       </c>
       <c r="F79">
-        <v>1098</v>
+        <v>40</v>
       </c>
       <c r="G79">
-        <v>0.4965034965034965</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H79">
+        <v>0.2</v>
+      </c>
+      <c r="I79">
+        <v>571</v>
+      </c>
+      <c r="J79">
+        <v>1108</v>
+      </c>
+      <c r="K79">
+        <v>0.4973730297723292</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2229,16 +3189,28 @@
         <v>55</v>
       </c>
       <c r="E80">
-        <v>479</v>
+        <v>384</v>
       </c>
       <c r="F80">
-        <v>1828</v>
+        <v>40</v>
       </c>
       <c r="G80">
-        <v>0.4843423799582464</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H80">
+        <v>0.2</v>
+      </c>
+      <c r="I80">
+        <v>478</v>
+      </c>
+      <c r="J80">
+        <v>1838</v>
+      </c>
+      <c r="K80">
+        <v>0.4853556485355648</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2252,16 +3224,28 @@
         <v>55</v>
       </c>
       <c r="E81">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="F81">
-        <v>-1040</v>
+        <v>40</v>
       </c>
       <c r="G81">
-        <v>0.4588528678304239</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H81">
+        <v>0.2</v>
+      </c>
+      <c r="I81">
+        <v>400</v>
+      </c>
+      <c r="J81">
+        <v>-1030</v>
+      </c>
+      <c r="K81">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2275,16 +3259,28 @@
         <v>55</v>
       </c>
       <c r="E82">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="F82">
-        <v>8954</v>
+        <v>40</v>
       </c>
       <c r="G82">
-        <v>0.516320474777448</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H82">
+        <v>0.2</v>
+      </c>
+      <c r="I82">
+        <v>336</v>
+      </c>
+      <c r="J82">
+        <v>8964</v>
+      </c>
+      <c r="K82">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2298,16 +3294,28 @@
         <v>55</v>
       </c>
       <c r="E83">
-        <v>1842</v>
+        <v>384</v>
       </c>
       <c r="F83">
-        <v>7326</v>
+        <v>40</v>
       </c>
       <c r="G83">
-        <v>0.5754614549402823</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H83">
+        <v>0.2</v>
+      </c>
+      <c r="I83">
+        <v>1841</v>
+      </c>
+      <c r="J83">
+        <v>7336</v>
+      </c>
+      <c r="K83">
+        <v>0.5757740358500815</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2321,16 +3329,28 @@
         <v>55</v>
       </c>
       <c r="E84">
-        <v>1346</v>
+        <v>384</v>
       </c>
       <c r="F84">
-        <v>1022</v>
+        <v>40</v>
       </c>
       <c r="G84">
-        <v>0.5416047548291233</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H84">
+        <v>0.2</v>
+      </c>
+      <c r="I84">
+        <v>1345</v>
+      </c>
+      <c r="J84">
+        <v>1032</v>
+      </c>
+      <c r="K84">
+        <v>0.5420074349442379</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2344,16 +3364,28 @@
         <v>55</v>
       </c>
       <c r="E85">
-        <v>1040</v>
+        <v>384</v>
       </c>
       <c r="F85">
-        <v>5508</v>
+        <v>40</v>
       </c>
       <c r="G85">
-        <v>0.5278846153846154</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H85">
+        <v>0.2</v>
+      </c>
+      <c r="I85">
+        <v>1039</v>
+      </c>
+      <c r="J85">
+        <v>5518</v>
+      </c>
+      <c r="K85">
+        <v>0.5283926852743022</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2367,16 +3399,28 @@
         <v>55</v>
       </c>
       <c r="E86">
-        <v>872</v>
+        <v>384</v>
       </c>
       <c r="F86">
-        <v>6262</v>
+        <v>40</v>
       </c>
       <c r="G86">
-        <v>0.5080275229357798</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H86">
+        <v>0.2</v>
+      </c>
+      <c r="I86">
+        <v>871</v>
+      </c>
+      <c r="J86">
+        <v>6272</v>
+      </c>
+      <c r="K86">
+        <v>0.5086107921928817</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2390,16 +3434,28 @@
         <v>55</v>
       </c>
       <c r="E87">
-        <v>680</v>
+        <v>384</v>
       </c>
       <c r="F87">
-        <v>2022</v>
+        <v>40</v>
       </c>
       <c r="G87">
-        <v>0.5117647058823529</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H87">
+        <v>0.2</v>
+      </c>
+      <c r="I87">
+        <v>679</v>
+      </c>
+      <c r="J87">
+        <v>2032</v>
+      </c>
+      <c r="K87">
+        <v>0.5125184094256259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2413,16 +3469,28 @@
         <v>55</v>
       </c>
       <c r="E88">
-        <v>562</v>
+        <v>384</v>
       </c>
       <c r="F88">
-        <v>3310</v>
+        <v>40</v>
       </c>
       <c r="G88">
-        <v>0.5106761565836299</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H88">
+        <v>0.2</v>
+      </c>
+      <c r="I88">
+        <v>561</v>
+      </c>
+      <c r="J88">
+        <v>3320</v>
+      </c>
+      <c r="K88">
+        <v>0.5115864527629234</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2436,16 +3504,28 @@
         <v>55</v>
       </c>
       <c r="E89">
-        <v>477</v>
+        <v>384</v>
       </c>
       <c r="F89">
-        <v>-2126</v>
+        <v>40</v>
       </c>
       <c r="G89">
-        <v>0.480083857442348</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H89">
+        <v>0.2</v>
+      </c>
+      <c r="I89">
+        <v>476</v>
+      </c>
+      <c r="J89">
+        <v>-2116</v>
+      </c>
+      <c r="K89">
+        <v>0.4810924369747899</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2459,16 +3539,28 @@
         <v>55</v>
       </c>
       <c r="E90">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="F90">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="G90">
-        <v>0.4716049382716049</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H90">
+        <v>0.2</v>
+      </c>
+      <c r="I90">
+        <v>404</v>
+      </c>
+      <c r="J90">
+        <v>84</v>
+      </c>
+      <c r="K90">
+        <v>0.4727722772277227</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2482,16 +3574,28 @@
         <v>55</v>
       </c>
       <c r="E91">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="F91">
-        <v>7844</v>
+        <v>40</v>
       </c>
       <c r="G91">
-        <v>0.5131964809384164</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H91">
+        <v>0.2</v>
+      </c>
+      <c r="I91">
+        <v>340</v>
+      </c>
+      <c r="J91">
+        <v>7854</v>
+      </c>
+      <c r="K91">
+        <v>0.5147058823529411</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2505,16 +3609,28 @@
         <v>55</v>
       </c>
       <c r="E92">
-        <v>1848</v>
+        <v>384</v>
       </c>
       <c r="F92">
-        <v>6860</v>
+        <v>40</v>
       </c>
       <c r="G92">
-        <v>0.5681818181818182</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H92">
+        <v>0.2</v>
+      </c>
+      <c r="I92">
+        <v>1847</v>
+      </c>
+      <c r="J92">
+        <v>6870</v>
+      </c>
+      <c r="K92">
+        <v>0.568489442338928</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2528,16 +3644,28 @@
         <v>55</v>
       </c>
       <c r="E93">
-        <v>1344</v>
+        <v>384</v>
       </c>
       <c r="F93">
-        <v>482</v>
+        <v>40</v>
       </c>
       <c r="G93">
-        <v>0.5334821428571429</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H93">
+        <v>0.2</v>
+      </c>
+      <c r="I93">
+        <v>1343</v>
+      </c>
+      <c r="J93">
+        <v>492</v>
+      </c>
+      <c r="K93">
+        <v>0.533879374534624</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2551,16 +3679,28 @@
         <v>55</v>
       </c>
       <c r="E94">
-        <v>1046</v>
+        <v>384</v>
       </c>
       <c r="F94">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="G94">
-        <v>0.5181644359464627</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H94">
+        <v>0.2</v>
+      </c>
+      <c r="I94">
+        <v>1045</v>
+      </c>
+      <c r="J94">
+        <v>198</v>
+      </c>
+      <c r="K94">
+        <v>0.5186602870813397</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2574,16 +3714,28 @@
         <v>55</v>
       </c>
       <c r="E95">
-        <v>864</v>
+        <v>384</v>
       </c>
       <c r="F95">
-        <v>5634</v>
+        <v>40</v>
       </c>
       <c r="G95">
-        <v>0.5011574074074074</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H95">
+        <v>0.2</v>
+      </c>
+      <c r="I95">
+        <v>863</v>
+      </c>
+      <c r="J95">
+        <v>5644</v>
+      </c>
+      <c r="K95">
+        <v>0.5017381228273464</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2597,16 +3749,28 @@
         <v>55</v>
       </c>
       <c r="E96">
-        <v>676</v>
+        <v>384</v>
       </c>
       <c r="F96">
-        <v>776</v>
+        <v>40</v>
       </c>
       <c r="G96">
-        <v>0.507396449704142</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H96">
+        <v>0.2</v>
+      </c>
+      <c r="I96">
+        <v>675</v>
+      </c>
+      <c r="J96">
+        <v>786</v>
+      </c>
+      <c r="K96">
+        <v>0.5081481481481481</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2620,16 +3784,28 @@
         <v>55</v>
       </c>
       <c r="E97">
-        <v>558</v>
+        <v>384</v>
       </c>
       <c r="F97">
-        <v>5654</v>
+        <v>40</v>
       </c>
       <c r="G97">
-        <v>0.507168458781362</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H97">
+        <v>0.2</v>
+      </c>
+      <c r="I97">
+        <v>557</v>
+      </c>
+      <c r="J97">
+        <v>5664</v>
+      </c>
+      <c r="K97">
+        <v>0.5080789946140036</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2643,16 +3819,28 @@
         <v>55</v>
       </c>
       <c r="E98">
-        <v>491</v>
+        <v>384</v>
       </c>
       <c r="F98">
-        <v>-3062</v>
+        <v>40</v>
       </c>
       <c r="G98">
-        <v>0.4684317718940937</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H98">
+        <v>0.2</v>
+      </c>
+      <c r="I98">
+        <v>490</v>
+      </c>
+      <c r="J98">
+        <v>-3052</v>
+      </c>
+      <c r="K98">
+        <v>0.4693877551020408</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2666,16 +3854,28 @@
         <v>55</v>
       </c>
       <c r="E99">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="F99">
-        <v>2548</v>
+        <v>40</v>
       </c>
       <c r="G99">
-        <v>0.481203007518797</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H99">
+        <v>0.2</v>
+      </c>
+      <c r="I99">
+        <v>398</v>
+      </c>
+      <c r="J99">
+        <v>2558</v>
+      </c>
+      <c r="K99">
+        <v>0.4824120603015075</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2689,16 +3889,28 @@
         <v>55</v>
       </c>
       <c r="E100">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="F100">
-        <v>6242</v>
+        <v>40</v>
       </c>
       <c r="G100">
-        <v>0.495575221238938</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H100">
+        <v>0.2</v>
+      </c>
+      <c r="I100">
+        <v>338</v>
+      </c>
+      <c r="J100">
+        <v>6252</v>
+      </c>
+      <c r="K100">
+        <v>0.4970414201183432</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2712,16 +3924,28 @@
         <v>55</v>
       </c>
       <c r="E101">
-        <v>1850</v>
+        <v>384</v>
       </c>
       <c r="F101">
-        <v>5960</v>
+        <v>40</v>
       </c>
       <c r="G101">
-        <v>0.5675675675675675</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H101">
+        <v>0.2</v>
+      </c>
+      <c r="I101">
+        <v>1849</v>
+      </c>
+      <c r="J101">
+        <v>5970</v>
+      </c>
+      <c r="K101">
+        <v>0.5678745267712277</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2735,16 +3959,28 @@
         <v>55</v>
       </c>
       <c r="E102">
-        <v>1356</v>
+        <v>384</v>
       </c>
       <c r="F102">
-        <v>-1346</v>
+        <v>40</v>
       </c>
       <c r="G102">
-        <v>0.5221238938053098</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H102">
+        <v>0.2</v>
+      </c>
+      <c r="I102">
+        <v>1355</v>
+      </c>
+      <c r="J102">
+        <v>-1336</v>
+      </c>
+      <c r="K102">
+        <v>0.522509225092251</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2758,16 +3994,28 @@
         <v>55</v>
       </c>
       <c r="E103">
-        <v>1056</v>
+        <v>384</v>
       </c>
       <c r="F103">
-        <v>1716</v>
+        <v>40</v>
       </c>
       <c r="G103">
-        <v>0.5198863636363636</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H103">
+        <v>0.2</v>
+      </c>
+      <c r="I103">
+        <v>1055</v>
+      </c>
+      <c r="J103">
+        <v>1726</v>
+      </c>
+      <c r="K103">
+        <v>0.5203791469194313</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2781,16 +4029,28 @@
         <v>55</v>
       </c>
       <c r="E104">
-        <v>846</v>
+        <v>384</v>
       </c>
       <c r="F104">
-        <v>5360</v>
+        <v>40</v>
       </c>
       <c r="G104">
-        <v>0.5059101654846335</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H104">
+        <v>0.2</v>
+      </c>
+      <c r="I104">
+        <v>845</v>
+      </c>
+      <c r="J104">
+        <v>5370</v>
+      </c>
+      <c r="K104">
+        <v>0.506508875739645</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2804,16 +4064,28 @@
         <v>55</v>
       </c>
       <c r="E105">
-        <v>674</v>
+        <v>384</v>
       </c>
       <c r="F105">
-        <v>4772</v>
+        <v>40</v>
       </c>
       <c r="G105">
-        <v>0.5207715133531158</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H105">
+        <v>0.2</v>
+      </c>
+      <c r="I105">
+        <v>673</v>
+      </c>
+      <c r="J105">
+        <v>4782</v>
+      </c>
+      <c r="K105">
+        <v>0.5215453194650818</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2827,16 +4099,28 @@
         <v>55</v>
       </c>
       <c r="E106">
-        <v>556</v>
+        <v>384</v>
       </c>
       <c r="F106">
-        <v>7942</v>
+        <v>40</v>
       </c>
       <c r="G106">
-        <v>0.5017985611510791</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H106">
+        <v>0.2</v>
+      </c>
+      <c r="I106">
+        <v>555</v>
+      </c>
+      <c r="J106">
+        <v>7952</v>
+      </c>
+      <c r="K106">
+        <v>0.5027027027027027</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2850,16 +4134,28 @@
         <v>55</v>
       </c>
       <c r="E107">
-        <v>489</v>
+        <v>384</v>
       </c>
       <c r="F107">
-        <v>-502</v>
+        <v>40</v>
       </c>
       <c r="G107">
-        <v>0.4683026584867075</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H107">
+        <v>0.2</v>
+      </c>
+      <c r="I107">
+        <v>488</v>
+      </c>
+      <c r="J107">
+        <v>-492</v>
+      </c>
+      <c r="K107">
+        <v>0.4692622950819672</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2873,16 +4169,28 @@
         <v>55</v>
       </c>
       <c r="E108">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="F108">
-        <v>5704</v>
+        <v>40</v>
       </c>
       <c r="G108">
-        <v>0.4634760705289673</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H108">
+        <v>0.2</v>
+      </c>
+      <c r="I108">
+        <v>396</v>
+      </c>
+      <c r="J108">
+        <v>5714</v>
+      </c>
+      <c r="K108">
+        <v>0.4646464646464646</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2896,16 +4204,28 @@
         <v>55</v>
       </c>
       <c r="E109">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="F109">
-        <v>6248</v>
+        <v>40</v>
       </c>
       <c r="G109">
-        <v>0.478134110787172</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H109">
+        <v>0.2</v>
+      </c>
+      <c r="I109">
+        <v>342</v>
+      </c>
+      <c r="J109">
+        <v>6258</v>
+      </c>
+      <c r="K109">
+        <v>0.47953216374269</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2919,16 +4239,28 @@
         <v>55</v>
       </c>
       <c r="E110">
-        <v>1846</v>
+        <v>384</v>
       </c>
       <c r="F110">
-        <v>7774</v>
+        <v>40</v>
       </c>
       <c r="G110">
-        <v>0.5747562296858072</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H110">
+        <v>0.2</v>
+      </c>
+      <c r="I110">
+        <v>1845</v>
+      </c>
+      <c r="J110">
+        <v>7784</v>
+      </c>
+      <c r="K110">
+        <v>0.5750677506775068</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2942,16 +4274,28 @@
         <v>55</v>
       </c>
       <c r="E111">
-        <v>1354</v>
+        <v>384</v>
       </c>
       <c r="F111">
-        <v>456</v>
+        <v>40</v>
       </c>
       <c r="G111">
-        <v>0.5302806499261448</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H111">
+        <v>0.2</v>
+      </c>
+      <c r="I111">
+        <v>1353</v>
+      </c>
+      <c r="J111">
+        <v>466</v>
+      </c>
+      <c r="K111">
+        <v>0.5306725794530672</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2965,16 +4309,28 @@
         <v>55</v>
       </c>
       <c r="E112">
-        <v>1050</v>
+        <v>384</v>
       </c>
       <c r="F112">
-        <v>2886</v>
+        <v>40</v>
       </c>
       <c r="G112">
-        <v>0.5228571428571429</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H112">
+        <v>0.2</v>
+      </c>
+      <c r="I112">
+        <v>1049</v>
+      </c>
+      <c r="J112">
+        <v>2896</v>
+      </c>
+      <c r="K112">
+        <v>0.5233555767397522</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2988,16 +4344,28 @@
         <v>55</v>
       </c>
       <c r="E113">
-        <v>848</v>
+        <v>384</v>
       </c>
       <c r="F113">
-        <v>4282</v>
+        <v>40</v>
       </c>
       <c r="G113">
-        <v>0.5129716981132075</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H113">
+        <v>0.2</v>
+      </c>
+      <c r="I113">
+        <v>847</v>
+      </c>
+      <c r="J113">
+        <v>4292</v>
+      </c>
+      <c r="K113">
+        <v>0.51357733175915</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3011,16 +4379,28 @@
         <v>55</v>
       </c>
       <c r="E114">
-        <v>680</v>
+        <v>384</v>
       </c>
       <c r="F114">
-        <v>6158</v>
+        <v>40</v>
       </c>
       <c r="G114">
-        <v>0.525</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H114">
+        <v>0.2</v>
+      </c>
+      <c r="I114">
+        <v>679</v>
+      </c>
+      <c r="J114">
+        <v>6168</v>
+      </c>
+      <c r="K114">
+        <v>0.5257731958762887</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3034,16 +4414,28 @@
         <v>55</v>
       </c>
       <c r="E115">
-        <v>560</v>
+        <v>384</v>
       </c>
       <c r="F115">
-        <v>9702</v>
+        <v>40</v>
       </c>
       <c r="G115">
-        <v>0.5071428571428571</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H115">
+        <v>0.2</v>
+      </c>
+      <c r="I115">
+        <v>559</v>
+      </c>
+      <c r="J115">
+        <v>9712</v>
+      </c>
+      <c r="K115">
+        <v>0.5080500894454383</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3057,16 +4449,28 @@
         <v>55</v>
       </c>
       <c r="E116">
-        <v>499</v>
+        <v>384</v>
       </c>
       <c r="F116">
-        <v>-3274</v>
+        <v>40</v>
       </c>
       <c r="G116">
-        <v>0.4609218436873748</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H116">
+        <v>0.2</v>
+      </c>
+      <c r="I116">
+        <v>498</v>
+      </c>
+      <c r="J116">
+        <v>-3264</v>
+      </c>
+      <c r="K116">
+        <v>0.461847389558233</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3080,16 +4484,28 @@
         <v>55</v>
       </c>
       <c r="E117">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="F117">
-        <v>6642</v>
+        <v>40</v>
       </c>
       <c r="G117">
-        <v>0.4683544303797468</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H117">
+        <v>0.2</v>
+      </c>
+      <c r="I117">
+        <v>394</v>
+      </c>
+      <c r="J117">
+        <v>6652</v>
+      </c>
+      <c r="K117">
+        <v>0.4695431472081218</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3103,16 +4519,28 @@
         <v>55</v>
       </c>
       <c r="E118">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="F118">
-        <v>5794</v>
+        <v>40</v>
       </c>
       <c r="G118">
-        <v>0.4610951008645533</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H118">
+        <v>0.2</v>
+      </c>
+      <c r="I118">
+        <v>346</v>
+      </c>
+      <c r="J118">
+        <v>5804</v>
+      </c>
+      <c r="K118">
+        <v>0.4624277456647399</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3126,16 +4554,28 @@
         <v>55</v>
       </c>
       <c r="E119">
-        <v>1846</v>
+        <v>384</v>
       </c>
       <c r="F119">
-        <v>6992</v>
+        <v>40</v>
       </c>
       <c r="G119">
-        <v>0.5682556879739978</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H119">
+        <v>0.2</v>
+      </c>
+      <c r="I119">
+        <v>1845</v>
+      </c>
+      <c r="J119">
+        <v>7002</v>
+      </c>
+      <c r="K119">
+        <v>0.5685636856368563</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3149,16 +4589,28 @@
         <v>55</v>
       </c>
       <c r="E120">
-        <v>1356</v>
+        <v>384</v>
       </c>
       <c r="F120">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="G120">
-        <v>0.5221238938053098</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H120">
+        <v>0.2</v>
+      </c>
+      <c r="I120">
+        <v>1355</v>
+      </c>
+      <c r="J120">
+        <v>84</v>
+      </c>
+      <c r="K120">
+        <v>0.522509225092251</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3172,16 +4624,28 @@
         <v>55</v>
       </c>
       <c r="E121">
-        <v>1056</v>
+        <v>384</v>
       </c>
       <c r="F121">
-        <v>2432</v>
+        <v>40</v>
       </c>
       <c r="G121">
-        <v>0.5170454545454546</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H121">
+        <v>0.2</v>
+      </c>
+      <c r="I121">
+        <v>1055</v>
+      </c>
+      <c r="J121">
+        <v>2442</v>
+      </c>
+      <c r="K121">
+        <v>0.5175355450236967</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3195,16 +4659,28 @@
         <v>55</v>
       </c>
       <c r="E122">
-        <v>860</v>
+        <v>384</v>
       </c>
       <c r="F122">
-        <v>5106</v>
+        <v>40</v>
       </c>
       <c r="G122">
-        <v>0.5011627906976744</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H122">
+        <v>0.2</v>
+      </c>
+      <c r="I122">
+        <v>859</v>
+      </c>
+      <c r="J122">
+        <v>5116</v>
+      </c>
+      <c r="K122">
+        <v>0.5017462165308498</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3218,16 +4694,28 @@
         <v>55</v>
       </c>
       <c r="E123">
-        <v>688</v>
+        <v>384</v>
       </c>
       <c r="F123">
-        <v>7140</v>
+        <v>40</v>
       </c>
       <c r="G123">
-        <v>0.5130813953488372</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H123">
+        <v>0.2</v>
+      </c>
+      <c r="I123">
+        <v>687</v>
+      </c>
+      <c r="J123">
+        <v>7150</v>
+      </c>
+      <c r="K123">
+        <v>0.5138282387190685</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3241,16 +4729,28 @@
         <v>55</v>
       </c>
       <c r="E124">
-        <v>564</v>
+        <v>384</v>
       </c>
       <c r="F124">
-        <v>8584</v>
+        <v>40</v>
       </c>
       <c r="G124">
-        <v>0.5106382978723404</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H124">
+        <v>0.2</v>
+      </c>
+      <c r="I124">
+        <v>563</v>
+      </c>
+      <c r="J124">
+        <v>8594</v>
+      </c>
+      <c r="K124">
+        <v>0.5115452930728241</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3264,16 +4764,28 @@
         <v>55</v>
       </c>
       <c r="E125">
-        <v>503</v>
+        <v>384</v>
       </c>
       <c r="F125">
-        <v>-5250</v>
+        <v>40</v>
       </c>
       <c r="G125">
-        <v>0.4552683896620278</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H125">
+        <v>0.2</v>
+      </c>
+      <c r="I125">
+        <v>502</v>
+      </c>
+      <c r="J125">
+        <v>-5240</v>
+      </c>
+      <c r="K125">
+        <v>0.4561752988047809</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3287,16 +4799,28 @@
         <v>55</v>
       </c>
       <c r="E126">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="F126">
-        <v>5688</v>
+        <v>40</v>
       </c>
       <c r="G126">
-        <v>0.4839506172839506</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H126">
+        <v>0.2</v>
+      </c>
+      <c r="I126">
+        <v>404</v>
+      </c>
+      <c r="J126">
+        <v>5698</v>
+      </c>
+      <c r="K126">
+        <v>0.4851485148514851</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3310,16 +4834,28 @@
         <v>55</v>
       </c>
       <c r="E127">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="F127">
-        <v>7046</v>
+        <v>40</v>
       </c>
       <c r="G127">
-        <v>0.4744318181818182</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H127">
+        <v>0.2</v>
+      </c>
+      <c r="I127">
+        <v>351</v>
+      </c>
+      <c r="J127">
+        <v>7056</v>
+      </c>
+      <c r="K127">
+        <v>0.4757834757834758</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3333,16 +4869,28 @@
         <v>55</v>
       </c>
       <c r="E128">
-        <v>1848</v>
+        <v>384</v>
       </c>
       <c r="F128">
-        <v>5200</v>
+        <v>40</v>
       </c>
       <c r="G128">
-        <v>0.5524891774891775</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H128">
+        <v>0.2</v>
+      </c>
+      <c r="I128">
+        <v>1847</v>
+      </c>
+      <c r="J128">
+        <v>5210</v>
+      </c>
+      <c r="K128">
+        <v>0.5527883053600433</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3356,16 +4904,28 @@
         <v>55</v>
       </c>
       <c r="E129">
-        <v>1366</v>
+        <v>384</v>
       </c>
       <c r="F129">
-        <v>-1268</v>
+        <v>40</v>
       </c>
       <c r="G129">
-        <v>0.5204978038067349</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H129">
+        <v>0.2</v>
+      </c>
+      <c r="I129">
+        <v>1365</v>
+      </c>
+      <c r="J129">
+        <v>-1258</v>
+      </c>
+      <c r="K129">
+        <v>0.5208791208791209</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3379,16 +4939,28 @@
         <v>55</v>
       </c>
       <c r="E130">
-        <v>1054</v>
+        <v>384</v>
       </c>
       <c r="F130">
-        <v>4798</v>
+        <v>40</v>
       </c>
       <c r="G130">
-        <v>0.5227703984819735</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H130">
+        <v>0.2</v>
+      </c>
+      <c r="I130">
+        <v>1053</v>
+      </c>
+      <c r="J130">
+        <v>4808</v>
+      </c>
+      <c r="K130">
+        <v>0.5232668566001899</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3402,16 +4974,28 @@
         <v>55</v>
       </c>
       <c r="E131">
-        <v>864</v>
+        <v>384</v>
       </c>
       <c r="F131">
-        <v>3274</v>
+        <v>40</v>
       </c>
       <c r="G131">
-        <v>0.5034722222222222</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H131">
+        <v>0.2</v>
+      </c>
+      <c r="I131">
+        <v>863</v>
+      </c>
+      <c r="J131">
+        <v>3284</v>
+      </c>
+      <c r="K131">
+        <v>0.5040556199304751</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3425,16 +5009,28 @@
         <v>55</v>
       </c>
       <c r="E132">
-        <v>688</v>
+        <v>384</v>
       </c>
       <c r="F132">
-        <v>8906</v>
+        <v>40</v>
       </c>
       <c r="G132">
-        <v>0.5290697674418605</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H132">
+        <v>0.2</v>
+      </c>
+      <c r="I132">
+        <v>687</v>
+      </c>
+      <c r="J132">
+        <v>8916</v>
+      </c>
+      <c r="K132">
+        <v>0.529839883551674</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3448,16 +5044,28 @@
         <v>55</v>
       </c>
       <c r="E133">
-        <v>564</v>
+        <v>384</v>
       </c>
       <c r="F133">
-        <v>7920</v>
+        <v>40</v>
       </c>
       <c r="G133">
-        <v>0.5106382978723404</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H133">
+        <v>0.2</v>
+      </c>
+      <c r="I133">
+        <v>563</v>
+      </c>
+      <c r="J133">
+        <v>7930</v>
+      </c>
+      <c r="K133">
+        <v>0.5115452930728241</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3471,16 +5079,28 @@
         <v>55</v>
       </c>
       <c r="E134">
-        <v>493</v>
+        <v>384</v>
       </c>
       <c r="F134">
-        <v>490</v>
+        <v>40</v>
       </c>
       <c r="G134">
-        <v>0.4665314401622718</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H134">
+        <v>0.2</v>
+      </c>
+      <c r="I134">
+        <v>492</v>
+      </c>
+      <c r="J134">
+        <v>500</v>
+      </c>
+      <c r="K134">
+        <v>0.467479674796748</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3494,16 +5114,28 @@
         <v>55</v>
       </c>
       <c r="E135">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="F135">
-        <v>4704</v>
+        <v>40</v>
       </c>
       <c r="G135">
-        <v>0.4768856447688564</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H135">
+        <v>0.2</v>
+      </c>
+      <c r="I135">
+        <v>410</v>
+      </c>
+      <c r="J135">
+        <v>4714</v>
+      </c>
+      <c r="K135">
+        <v>0.4780487804878049</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3517,16 +5149,28 @@
         <v>55</v>
       </c>
       <c r="E136">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="F136">
-        <v>7572</v>
+        <v>40</v>
       </c>
       <c r="G136">
-        <v>0.4692737430167598</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H136">
+        <v>0.2</v>
+      </c>
+      <c r="I136">
+        <v>357</v>
+      </c>
+      <c r="J136">
+        <v>7582</v>
+      </c>
+      <c r="K136">
+        <v>0.4705882352941176</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3540,16 +5184,28 @@
         <v>55</v>
       </c>
       <c r="E137">
-        <v>1852</v>
+        <v>384</v>
       </c>
       <c r="F137">
-        <v>5808</v>
+        <v>40</v>
       </c>
       <c r="G137">
-        <v>0.5550755939524838</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H137">
+        <v>0.2</v>
+      </c>
+      <c r="I137">
+        <v>1851</v>
+      </c>
+      <c r="J137">
+        <v>5818</v>
+      </c>
+      <c r="K137">
+        <v>0.55537547271745</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3563,16 +5219,28 @@
         <v>55</v>
       </c>
       <c r="E138">
-        <v>1370</v>
+        <v>384</v>
       </c>
       <c r="F138">
-        <v>-516</v>
+        <v>40</v>
       </c>
       <c r="G138">
-        <v>0.5211678832116788</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H138">
+        <v>0.2</v>
+      </c>
+      <c r="I138">
+        <v>1369</v>
+      </c>
+      <c r="J138">
+        <v>-506</v>
+      </c>
+      <c r="K138">
+        <v>0.5215485756026297</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3586,16 +5254,28 @@
         <v>55</v>
       </c>
       <c r="E139">
-        <v>1058</v>
+        <v>384</v>
       </c>
       <c r="F139">
-        <v>5664</v>
+        <v>40</v>
       </c>
       <c r="G139">
-        <v>0.5236294896030246</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H139">
+        <v>0.2</v>
+      </c>
+      <c r="I139">
+        <v>1057</v>
+      </c>
+      <c r="J139">
+        <v>5674</v>
+      </c>
+      <c r="K139">
+        <v>0.5241248817407758</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3609,16 +5289,28 @@
         <v>55</v>
       </c>
       <c r="E140">
-        <v>862</v>
+        <v>384</v>
       </c>
       <c r="F140">
-        <v>3538</v>
+        <v>40</v>
       </c>
       <c r="G140">
-        <v>0.5150812064965197</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H140">
+        <v>0.2</v>
+      </c>
+      <c r="I140">
+        <v>861</v>
+      </c>
+      <c r="J140">
+        <v>3548</v>
+      </c>
+      <c r="K140">
+        <v>0.5156794425087108</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3632,16 +5324,28 @@
         <v>55</v>
       </c>
       <c r="E141">
-        <v>694</v>
+        <v>384</v>
       </c>
       <c r="F141">
-        <v>9656</v>
+        <v>40</v>
       </c>
       <c r="G141">
-        <v>0.521613832853026</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H141">
+        <v>0.2</v>
+      </c>
+      <c r="I141">
+        <v>693</v>
+      </c>
+      <c r="J141">
+        <v>9666</v>
+      </c>
+      <c r="K141">
+        <v>0.5223665223665224</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3655,16 +5359,28 @@
         <v>55</v>
       </c>
       <c r="E142">
-        <v>572</v>
+        <v>384</v>
       </c>
       <c r="F142">
-        <v>9186</v>
+        <v>40</v>
       </c>
       <c r="G142">
-        <v>0.5192307692307693</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H142">
+        <v>0.2</v>
+      </c>
+      <c r="I142">
+        <v>571</v>
+      </c>
+      <c r="J142">
+        <v>9196</v>
+      </c>
+      <c r="K142">
+        <v>0.5201401050788091</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3678,16 +5394,28 @@
         <v>55</v>
       </c>
       <c r="E143">
-        <v>502</v>
+        <v>384</v>
       </c>
       <c r="F143">
-        <v>-398</v>
+        <v>40</v>
       </c>
       <c r="G143">
-        <v>0.4422310756972112</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H143">
+        <v>0.2</v>
+      </c>
+      <c r="I143">
+        <v>501</v>
+      </c>
+      <c r="J143">
+        <v>-388</v>
+      </c>
+      <c r="K143">
+        <v>0.4431137724550898</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3701,16 +5429,28 @@
         <v>55</v>
       </c>
       <c r="E144">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="F144">
-        <v>5916</v>
+        <v>40</v>
       </c>
       <c r="G144">
-        <v>0.4626506024096386</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H144">
+        <v>0.2</v>
+      </c>
+      <c r="I144">
+        <v>414</v>
+      </c>
+      <c r="J144">
+        <v>5926</v>
+      </c>
+      <c r="K144">
+        <v>0.463768115942029</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3724,16 +5464,28 @@
         <v>55</v>
       </c>
       <c r="E145">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="F145">
-        <v>7864</v>
+        <v>40</v>
       </c>
       <c r="G145">
-        <v>0.4638888888888889</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H145">
+        <v>0.2</v>
+      </c>
+      <c r="I145">
+        <v>359</v>
+      </c>
+      <c r="J145">
+        <v>7874</v>
+      </c>
+      <c r="K145">
+        <v>0.4651810584958218</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3747,16 +5499,28 @@
         <v>55</v>
       </c>
       <c r="E146">
-        <v>1864</v>
+        <v>384</v>
       </c>
       <c r="F146">
-        <v>6612</v>
+        <v>40</v>
       </c>
       <c r="G146">
-        <v>0.5584763948497854</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H146">
+        <v>0.2</v>
+      </c>
+      <c r="I146">
+        <v>1863</v>
+      </c>
+      <c r="J146">
+        <v>6622</v>
+      </c>
+      <c r="K146">
+        <v>0.5587761674718197</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3770,16 +5534,28 @@
         <v>55</v>
       </c>
       <c r="E147">
-        <v>1374</v>
+        <v>384</v>
       </c>
       <c r="F147">
-        <v>-3642</v>
+        <v>40</v>
       </c>
       <c r="G147">
-        <v>0.5101892285298398</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H147">
+        <v>0.2</v>
+      </c>
+      <c r="I147">
+        <v>1373</v>
+      </c>
+      <c r="J147">
+        <v>-3632</v>
+      </c>
+      <c r="K147">
+        <v>0.5105608157319738</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3793,16 +5569,28 @@
         <v>55</v>
       </c>
       <c r="E148">
-        <v>1058</v>
+        <v>384</v>
       </c>
       <c r="F148">
-        <v>5408</v>
+        <v>40</v>
       </c>
       <c r="G148">
-        <v>0.5264650283553876</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H148">
+        <v>0.2</v>
+      </c>
+      <c r="I148">
+        <v>1057</v>
+      </c>
+      <c r="J148">
+        <v>5418</v>
+      </c>
+      <c r="K148">
+        <v>0.5269631031220435</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3816,16 +5604,28 @@
         <v>55</v>
       </c>
       <c r="E149">
-        <v>862</v>
+        <v>384</v>
       </c>
       <c r="F149">
-        <v>4356</v>
+        <v>40</v>
       </c>
       <c r="G149">
-        <v>0.5162412993039444</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H149">
+        <v>0.2</v>
+      </c>
+      <c r="I149">
+        <v>861</v>
+      </c>
+      <c r="J149">
+        <v>4366</v>
+      </c>
+      <c r="K149">
+        <v>0.5168408826945412</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3839,16 +5639,28 @@
         <v>55</v>
       </c>
       <c r="E150">
-        <v>698</v>
+        <v>384</v>
       </c>
       <c r="F150">
-        <v>10830</v>
+        <v>40</v>
       </c>
       <c r="G150">
-        <v>0.5243553008595988</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H150">
+        <v>0.2</v>
+      </c>
+      <c r="I150">
+        <v>697</v>
+      </c>
+      <c r="J150">
+        <v>10840</v>
+      </c>
+      <c r="K150">
+        <v>0.5251076040172167</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3862,16 +5674,28 @@
         <v>55</v>
       </c>
       <c r="E151">
-        <v>582</v>
+        <v>384</v>
       </c>
       <c r="F151">
-        <v>12066</v>
+        <v>40</v>
       </c>
       <c r="G151">
-        <v>0.5154639175257731</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H151">
+        <v>0.2</v>
+      </c>
+      <c r="I151">
+        <v>581</v>
+      </c>
+      <c r="J151">
+        <v>12076</v>
+      </c>
+      <c r="K151">
+        <v>0.5163511187607573</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3885,16 +5709,28 @@
         <v>55</v>
       </c>
       <c r="E152">
-        <v>502</v>
+        <v>384</v>
       </c>
       <c r="F152">
-        <v>-670</v>
+        <v>40</v>
       </c>
       <c r="G152">
-        <v>0.4621513944223107</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H152">
+        <v>0.2</v>
+      </c>
+      <c r="I152">
+        <v>501</v>
+      </c>
+      <c r="J152">
+        <v>-660</v>
+      </c>
+      <c r="K152">
+        <v>0.4630738522954092</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3908,16 +5744,28 @@
         <v>55</v>
       </c>
       <c r="E153">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="F153">
-        <v>6898</v>
+        <v>40</v>
       </c>
       <c r="G153">
-        <v>0.4532374100719425</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H153">
+        <v>0.2</v>
+      </c>
+      <c r="I153">
+        <v>416</v>
+      </c>
+      <c r="J153">
+        <v>6908</v>
+      </c>
+      <c r="K153">
+        <v>0.4543269230769231</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3931,13 +5779,25 @@
         <v>55</v>
       </c>
       <c r="E154">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="F154">
-        <v>7654</v>
+        <v>40</v>
       </c>
       <c r="G154">
-        <v>0.4617486338797814</v>
+        <v>40</v>
+      </c>
+      <c r="H154">
+        <v>0.2</v>
+      </c>
+      <c r="I154">
+        <v>365</v>
+      </c>
+      <c r="J154">
+        <v>7664</v>
+      </c>
+      <c r="K154">
+        <v>0.463013698630137</v>
       </c>
     </row>
   </sheetData>
